--- a/outputs-HGR-r202/g__51-20.xlsx
+++ b/outputs-HGR-r202/g__51-20.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,49 +909,49 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42116.fa</t>
+          <t>even_MAG-GUT50866.fa</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9967991540154064</v>
+        <v>0.0005655976900774603</v>
       </c>
       <c r="C17" t="n">
-        <v>1.692803783069378e-05</v>
+        <v>0.9988506458427238</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003183917946762936</v>
+        <v>0.0005837564671987701</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9967991540154064</v>
+        <v>0.9988506458427238</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp900539605</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50866.fa</t>
+          <t>even_MAG-GUT50872.fa</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0005655976900774603</v>
+        <v>0.001395091303443542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988506458427238</v>
+        <v>0.9968242263707262</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005837564671987701</v>
+        <v>0.001780682325830215</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9988506458427238</v>
+        <v>0.9968242263707262</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -967,49 +967,49 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT50872.fa</t>
+          <t>even_MAG-GUT6623.fa</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001395091303443542</v>
+        <v>0.9953620419734649</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9968242263707262</v>
+        <v>1.246849442190159e-06</v>
       </c>
       <c r="D19" t="n">
-        <v>0.001780682325830215</v>
+        <v>0.004636711177093</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9968242263707262</v>
+        <v>0.9953620419734649</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>s__51-20 sp900539605</t>
+          <t>s__51-20 sp001917175</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>s__51-20 sp900539605</t>
+          <t>s__51-20 sp001917175</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT6623.fa</t>
+          <t>even_MAG-GUT70973.fa</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9953620419734649</v>
+        <v>0.9345136688246707</v>
       </c>
       <c r="C20" t="n">
-        <v>1.246849442190159e-06</v>
+        <v>0.06536924418934188</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004636711177093</v>
+        <v>0.0001170869859874606</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9953620419734649</v>
+        <v>0.9345136688246707</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1025,20 +1025,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT70973.fa</t>
+          <t>even_MAG-GUT77514.fa</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9345136688246707</v>
+        <v>0.9981647840410642</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06536924418934188</v>
+        <v>5.09066750939553e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001170869859874606</v>
+        <v>0.001784309283841909</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9345136688246707</v>
+        <v>0.9981647840410642</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1054,20 +1054,20 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77514.fa</t>
+          <t>even_MAG-GUT77526.fa</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9981647840410642</v>
+        <v>0.9977564091645771</v>
       </c>
       <c r="C22" t="n">
-        <v>5.09066750939553e-05</v>
+        <v>0.0003001723838781693</v>
       </c>
       <c r="D22" t="n">
-        <v>0.001784309283841909</v>
+        <v>0.001943418451544726</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9981647840410642</v>
+        <v>0.9977564091645771</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1083,20 +1083,20 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT77526.fa</t>
+          <t>even_MAG-GUT78207.fa</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9977564091645771</v>
+        <v>0.9977931712018591</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0003001723838781693</v>
+        <v>5.512006263311557e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001943418451544726</v>
+        <v>0.002151708735507834</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9977564091645771</v>
+        <v>0.9977931712018591</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1104,35 +1104,6 @@
         </is>
       </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78207.fa</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9977931712018591</v>
-      </c>
-      <c r="C24" t="n">
-        <v>5.512006263311557e-05</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.002151708735507834</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9977931712018591</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>s__51-20 sp001917175</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
         <is>
           <t>s__51-20 sp001917175</t>
         </is>

--- a/outputs-HGR-r202/g__51-20.xlsx
+++ b/outputs-HGR-r202/g__51-20.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +523,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -537,6 +552,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -561,6 +581,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -585,6 +610,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -609,6 +639,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -633,6 +668,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -657,6 +697,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -681,6 +726,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -705,6 +755,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -729,6 +784,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -753,6 +813,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -777,6 +842,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -801,6 +871,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -825,6 +900,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -849,6 +929,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -873,6 +958,11 @@
           <t>s__51-20 sp900539605</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>s__51-20 sp900539605</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -897,6 +987,11 @@
           <t>s__51-20 sp900539605</t>
         </is>
       </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>s__51-20 sp900539605</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -921,6 +1016,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -945,6 +1045,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -969,6 +1074,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -993,6 +1103,11 @@
           <t>s__51-20 sp001917175</t>
         </is>
       </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1013,6 +1128,11 @@
         <v>0.9977931712018591</v>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>s__51-20 sp001917175</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>s__51-20 sp001917175</t>
         </is>

--- a/outputs-HGR-r202/g__51-20.xlsx
+++ b/outputs-HGR-r202/g__51-20.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>s__51-20 sp001917175</t>
+          <t>s__51-20 sp001917175(reject)</t>
         </is>
       </c>
     </row>
